--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12480" windowHeight="5310" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="18270" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Browsers" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PRST_STRBLG_309" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:K25"/>
 </workbook>
 </file>
 
@@ -765,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1469,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
